--- a/results/merged_RJ_2025.08.22.xlsx
+++ b/results/merged_RJ_2025.08.22.xlsx
@@ -1232,10 +1232,10 @@
         <v>139.2238744451395</v>
       </c>
       <c r="BR2" s="2" t="n">
-        <v>0.1436003608658095</v>
+        <v>0.1371259740588166</v>
       </c>
       <c r="BS2" s="2" t="n">
-        <v>0.8467323200136769</v>
+        <v>0.8085564231795881</v>
       </c>
       <c r="BT2" s="2" t="n">
         <v>0.1354723258715921</v>
@@ -1253,7 +1253,7 @@
         <v>0.200826015555391</v>
       </c>
       <c r="BY2" s="2" t="n">
-        <v>0.7563033462846687</v>
+        <v>0.7222045433447111</v>
       </c>
       <c r="BZ2" s="2" t="n">
         <v>2.665424235047427</v>
